--- a/experiment_results/20201127_AGGREGATION_MODE_NORMALIZATION1/ExamDB/4wise/0.95_.xlsx
+++ b/experiment_results/20201127_AGGREGATION_MODE_NORMALIZATION1/ExamDB/4wise/0.95_.xlsx
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -688,19 +688,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -963,10 +963,10 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G11">
         <v>168</v>
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -1562,19 +1562,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -2521,10 +2521,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -2601,10 +2601,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -2677,19 +2677,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -3370,10 +3370,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -3551,19 +3551,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -4510,10 +4510,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -4590,10 +4590,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -4666,19 +4666,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -5359,10 +5359,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -5540,19 +5540,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -6499,10 +6499,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -6579,10 +6579,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -6655,19 +6655,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -7348,10 +7348,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -7529,19 +7529,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -8488,10 +8488,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -8568,10 +8568,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -8644,19 +8644,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -9337,10 +9337,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -9518,19 +9518,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -10477,10 +10477,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -10557,10 +10557,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -11326,10 +11326,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -11507,19 +11507,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -11887,19 +11887,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -12466,10 +12466,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -12546,19 +12546,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -13315,10 +13315,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -13496,19 +13496,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -13876,19 +13876,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -14535,7 +14535,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -14544,7 +14544,7 @@
         <v>34</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -14573,7 +14573,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -14611,7 +14611,7 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -14886,10 +14886,10 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>168</v>
@@ -15304,7 +15304,7 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <v>12</v>
@@ -15380,7 +15380,7 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -15447,10 +15447,10 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -15494,7 +15494,7 @@
         <v>9</v>
       </c>
       <c r="E27">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F27">
         <v>12</v>
@@ -15865,16 +15865,16 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F37">
         <v>16</v>
@@ -16292,7 +16292,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F48">
         <v>12</v>
@@ -16444,10 +16444,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F52">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -16524,19 +16524,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -16600,19 +16600,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -16875,10 +16875,10 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G11">
         <v>168</v>
@@ -17179,10 +17179,10 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -17293,10 +17293,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F22">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -17369,10 +17369,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F24">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -17445,10 +17445,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -17474,16 +17474,16 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -18281,7 +18281,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -18433,7 +18433,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F52">
         <v>10</v>
@@ -18513,10 +18513,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -18589,19 +18589,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -19282,10 +19282,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -19463,19 +19463,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -20422,10 +20422,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -20502,10 +20502,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -20578,19 +20578,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -21271,10 +21271,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -21452,19 +21452,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -22411,10 +22411,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -22491,10 +22491,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -23260,10 +23260,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -23441,19 +23441,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -23821,19 +23821,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -24400,10 +24400,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -24480,19 +24480,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -24556,19 +24556,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -24831,10 +24831,10 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G11">
         <v>168</v>
@@ -25135,10 +25135,10 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -25249,10 +25249,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F22">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -25325,10 +25325,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F24">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -25401,10 +25401,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -25430,16 +25430,16 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -26237,7 +26237,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -26389,7 +26389,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F52">
         <v>10</v>
@@ -26469,19 +26469,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -26545,19 +26545,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -26820,10 +26820,10 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G11">
         <v>168</v>
@@ -27124,10 +27124,10 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -27238,10 +27238,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F22">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -27314,10 +27314,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F24">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -27390,10 +27390,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -27419,16 +27419,16 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -28226,7 +28226,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -28378,7 +28378,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F52">
         <v>10</v>
@@ -28458,19 +28458,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -29113,10 +29113,10 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -29227,10 +29227,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -29303,10 +29303,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -29408,16 +29408,16 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -29788,19 +29788,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -30215,7 +30215,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -30367,10 +30367,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -30447,10 +30447,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -31216,10 +31216,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -31397,19 +31397,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -31777,19 +31777,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -32356,10 +32356,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -32436,10 +32436,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -33205,10 +33205,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -33386,19 +33386,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -33766,19 +33766,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -34345,10 +34345,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -34425,19 +34425,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -34501,19 +34501,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -34776,10 +34776,10 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G11">
         <v>168</v>
@@ -35080,10 +35080,10 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -35194,10 +35194,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F22">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -35270,10 +35270,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F24">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -35346,10 +35346,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -35375,16 +35375,16 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -36182,7 +36182,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -36334,7 +36334,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F52">
         <v>10</v>
@@ -36414,19 +36414,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -37183,10 +37183,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -37364,19 +37364,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -37744,19 +37744,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -38403,19 +38403,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -38479,19 +38479,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -39172,10 +39172,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -39353,19 +39353,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -40312,10 +40312,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -40392,10 +40392,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -40468,19 +40468,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -41161,10 +41161,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -41342,19 +41342,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -42301,10 +42301,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -42381,10 +42381,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -43150,10 +43150,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -43331,19 +43331,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -43711,19 +43711,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -44290,10 +44290,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -44370,19 +44370,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -45139,10 +45139,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -45320,19 +45320,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -45700,19 +45700,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -46359,10 +46359,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -47128,10 +47128,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -47309,19 +47309,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -47689,19 +47689,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -48268,10 +48268,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -48348,10 +48348,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -48424,19 +48424,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -48699,10 +48699,10 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G11">
         <v>168</v>
@@ -49117,10 +49117,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -49298,19 +49298,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -50257,10 +50257,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -50337,19 +50337,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -51106,10 +51106,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -51287,19 +51287,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -51667,19 +51667,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -52246,7 +52246,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -52326,7 +52326,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -52335,7 +52335,7 @@
         <v>34</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -52364,7 +52364,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -52402,7 +52402,7 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -52677,10 +52677,10 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>168</v>
@@ -53095,7 +53095,7 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <v>12</v>
@@ -53171,7 +53171,7 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -53238,10 +53238,10 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -53285,7 +53285,7 @@
         <v>9</v>
       </c>
       <c r="E27">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F27">
         <v>12</v>
@@ -53656,16 +53656,16 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F37">
         <v>16</v>
@@ -54083,7 +54083,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F48">
         <v>12</v>
@@ -54235,10 +54235,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F52">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -54315,19 +54315,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -54391,19 +54391,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -54666,10 +54666,10 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G11">
         <v>168</v>
@@ -54970,10 +54970,10 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -55084,10 +55084,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F22">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -55160,10 +55160,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F24">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -55236,10 +55236,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -55265,16 +55265,16 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -56072,7 +56072,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -56224,7 +56224,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F52">
         <v>10</v>
@@ -56304,19 +56304,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -56380,19 +56380,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -56655,10 +56655,10 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G11">
         <v>168</v>
@@ -56959,10 +56959,10 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -57073,10 +57073,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F22">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -57149,10 +57149,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F24">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -57225,10 +57225,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -57254,16 +57254,16 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -58061,7 +58061,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -58213,7 +58213,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F52">
         <v>10</v>
@@ -58293,19 +58293,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -59062,10 +59062,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -59243,19 +59243,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -59623,19 +59623,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
